--- a/input_data/admin_data/CHL/_clean/total-pre-CHL.xlsx
+++ b/input_data/admin_data/CHL/_clean/total-pre-CHL.xlsx
@@ -178,13 +178,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6156335E7</v>
+        <v>1.6348778E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1541565.1272247739</v>
+        <v>1523419.2194524305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5648847340687104</v>
+        <v>0.5700065166950092</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -207,7 +207,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9308043563097695</v>
+        <v>0.9316188647249354</v>
       </c>
       <c r="H3" t="n">
         <v>5114502.0</v>
@@ -230,7 +230,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9763434590827684</v>
+        <v>0.9766219224458244</v>
       </c>
       <c r="H4" t="n">
         <v>1.136556E7</v>
@@ -253,7 +253,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9890600188718542</v>
+        <v>0.9891887944163166</v>
       </c>
       <c r="H5" t="n">
         <v>1.89426E7</v>
@@ -276,7 +276,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9942026455876286</v>
+        <v>0.9942708867904378</v>
       </c>
       <c r="H6" t="n">
         <v>2.651964E7</v>
@@ -299,7 +299,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9967634986523862</v>
+        <v>0.9968015958134608</v>
       </c>
       <c r="H7" t="n">
         <v>3.409668E7</v>
@@ -322,7 +322,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.998470135708377</v>
+        <v>0.9984881438845155</v>
       </c>
       <c r="H8" t="n">
         <v>4.546224E7</v>
@@ -345,7 +345,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9991392230973175</v>
+        <v>0.999149355383014</v>
       </c>
       <c r="H9" t="n">
         <v>5.68278E7</v>
@@ -408,13 +408,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.78645995E7</v>
+        <v>1.7864195E7</v>
       </c>
       <c r="F2" t="n">
-        <v>3468379.333890202</v>
+        <v>3470085.930099603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47876570084876513</v>
+        <v>0.4787538985104003</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -437,7 +437,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.878330213895923</v>
+        <v>0.8783274589199234</v>
       </c>
       <c r="H3" t="n">
         <v>6998076.0</v>
@@ -460,13 +460,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9572380002137747</v>
+        <v>0.9572370319513418</v>
       </c>
       <c r="H4" t="n">
         <v>1.555128E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.0640275002616446E7</v>
+        <v>2.0714392514238246E7</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.979203452056118</v>
+        <v>0.9792029811586808</v>
       </c>
       <c r="H5" t="n">
         <v>2.59188E7</v>
@@ -506,7 +506,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9880454079029312</v>
+        <v>0.9880451372144112</v>
       </c>
       <c r="H6" t="n">
         <v>3.628632E7</v>
@@ -529,7 +529,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9927922257647029</v>
+        <v>0.9927920625586544</v>
       </c>
       <c r="H7" t="n">
         <v>4.665384E7</v>
@@ -552,7 +552,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9963049829356656</v>
+        <v>0.9963048992691806</v>
       </c>
       <c r="H8" t="n">
         <v>6.220512E7</v>
@@ -575,7 +575,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9978705931806644</v>
+        <v>0.9978705449643827</v>
       </c>
       <c r="H9" t="n">
         <v>7.77564E7</v>
@@ -638,13 +638,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8048518E7</v>
+        <v>1.8047625E7</v>
       </c>
       <c r="F2" t="n">
-        <v>3714335.508047553</v>
+        <v>3714519.294091904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4732553664516943</v>
+        <v>0.47322930302463617</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -667,7 +667,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.874651425673842</v>
+        <v>0.8746452234019712</v>
       </c>
       <c r="H3" t="n">
         <v>7282710.0</v>
@@ -690,7 +690,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9558061221425493</v>
+        <v>0.9558039354208656</v>
       </c>
       <c r="H4" t="n">
         <v>1.61838E7</v>
@@ -713,7 +713,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.978614643041606</v>
+        <v>0.9786135848899786</v>
       </c>
       <c r="H5" t="n">
         <v>2.6973E7</v>
@@ -736,7 +736,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9877198227577466</v>
+        <v>0.987719215132185</v>
       </c>
       <c r="H6" t="n">
         <v>3.77622E7</v>
@@ -759,7 +759,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9925230426121413</v>
+        <v>0.9925226726508336</v>
       </c>
       <c r="H7" t="n">
         <v>4.85514E7</v>
@@ -782,7 +782,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9960108636066407</v>
+        <v>0.9960106662233951</v>
       </c>
       <c r="H8" t="n">
         <v>6.47352E7</v>
@@ -805,7 +805,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9976973732690961</v>
+        <v>0.997697259334677</v>
       </c>
       <c r="H9" t="n">
         <v>8.0919E7</v>
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8300725E7</v>
+        <v>1.8267221E7</v>
       </c>
       <c r="F2" t="n">
-        <v>3867322.394098475</v>
+        <v>3873806.7973977225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.46750617803393035</v>
+        <v>0.46652952849259344</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -897,7 +897,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8723375166830822</v>
+        <v>0.8721033702937081</v>
       </c>
       <c r="H3" t="n">
         <v>7481646.0</v>
@@ -920,7 +920,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9552526470945824</v>
+        <v>0.955170575754243</v>
       </c>
       <c r="H4" t="n">
         <v>1.662588E7</v>
@@ -943,7 +943,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.978526260571644</v>
+        <v>0.9784868754804028</v>
       </c>
       <c r="H5" t="n">
         <v>2.77098E7</v>
@@ -966,7 +966,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.987629998265096</v>
+        <v>0.9876073103839933</v>
       </c>
       <c r="H6" t="n">
         <v>3.879372E7</v>
@@ -989,13 +989,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9924050549909907</v>
+        <v>0.9923911250649455</v>
       </c>
       <c r="H7" t="n">
         <v>4.987764E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.15954815965232E7</v>
+        <v>6.145813289150246E7</v>
       </c>
     </row>
     <row r="8">
@@ -1012,13 +1012,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9959732742828494</v>
+        <v>0.9959658888453805</v>
       </c>
       <c r="H8" t="n">
         <v>6.650352E7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.03722422396484E7</v>
+        <v>8.030303218250822E7</v>
       </c>
     </row>
     <row r="9">
@@ -1035,7 +1035,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9976705294462378</v>
+        <v>0.9976662569528227</v>
       </c>
       <c r="H9" t="n">
         <v>8.31294E7</v>
@@ -1098,13 +1098,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8552932E7</v>
+        <v>1.8558868E7</v>
       </c>
       <c r="F2" t="n">
-        <v>4103384.502282621</v>
+        <v>4102072.0466734986</v>
       </c>
       <c r="G2" t="n">
-        <v>0.46203640481191866</v>
+        <v>0.46220847090458317</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1127,7 +1127,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8674554512461965</v>
+        <v>0.8674978452349572</v>
       </c>
       <c r="H3" t="n">
         <v>7609464.0</v>
@@ -1150,7 +1150,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9538495586573594</v>
+        <v>0.9538643197419153</v>
       </c>
       <c r="H4" t="n">
         <v>1.690992E7</v>
@@ -1173,7 +1173,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9781913176849891</v>
+        <v>0.9781982931286541</v>
       </c>
       <c r="H5" t="n">
         <v>2.81832E7</v>
@@ -1196,7 +1196,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.987420263276985</v>
+        <v>0.9874242868692207</v>
       </c>
       <c r="H6" t="n">
         <v>3.945648E7</v>
@@ -1219,7 +1219,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9920452465410858</v>
+        <v>0.9920477908458641</v>
       </c>
       <c r="H7" t="n">
         <v>5.072976E7</v>
@@ -1242,7 +1242,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9955066401364485</v>
+        <v>0.9955080773245437</v>
       </c>
       <c r="H8" t="n">
         <v>6.763968E7</v>
@@ -1305,13 +1305,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.888368E7</v>
+        <v>1.8893191E7</v>
       </c>
       <c r="F2" t="n">
-        <v>4325463.248193132</v>
+        <v>4323285.771611565</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45540397846182523</v>
+        <v>0.4556781329315942</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1334,7 +1334,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8638960732230159</v>
+        <v>0.8639645891474871</v>
       </c>
       <c r="H3" t="n">
         <v>7833186.0</v>
@@ -1357,7 +1357,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9525272086796641</v>
+        <v>0.9525511069040693</v>
       </c>
       <c r="H4" t="n">
         <v>1.740708E7</v>
@@ -1380,7 +1380,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9776674885403692</v>
+        <v>0.9776787309248077</v>
       </c>
       <c r="H5" t="n">
         <v>2.90118E7</v>
@@ -1403,7 +1403,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9870517822797251</v>
+        <v>0.9870583005274228</v>
       </c>
       <c r="H6" t="n">
         <v>4.061652E7</v>
@@ -1426,7 +1426,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9917963553714106</v>
+        <v>0.9918004851589125</v>
       </c>
       <c r="H7" t="n">
         <v>5.222124E7</v>
@@ -1449,7 +1449,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9954643374596477</v>
+        <v>0.9954666207524182</v>
       </c>
       <c r="H8" t="n">
         <v>6.962832E7</v>
@@ -1512,13 +1512,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9214428E7</v>
+        <v>1.9197744E7</v>
       </c>
       <c r="F2" t="n">
-        <v>4557113.347161226</v>
+        <v>4561073.754128004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45314973727034713</v>
+        <v>0.4526744913360653</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1541,7 +1541,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8594570184446813</v>
+        <v>0.8593348780981765</v>
       </c>
       <c r="H3" t="n">
         <v>8038926.0</v>
@@ -1564,7 +1564,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9513523899852756</v>
+        <v>0.9513101122715253</v>
       </c>
       <c r="H4" t="n">
         <v>1.786428E7</v>
@@ -1587,7 +1587,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9775300623052635</v>
+        <v>0.9775105345711455</v>
       </c>
       <c r="H5" t="n">
         <v>2.97738E7</v>
@@ -1610,7 +1610,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.987171671204576</v>
+        <v>0.9871605226114069</v>
       </c>
       <c r="H6" t="n">
         <v>4.168332E7</v>
@@ -1633,7 +1633,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9918613242090787</v>
+        <v>0.9918542512078502</v>
       </c>
       <c r="H7" t="n">
         <v>5.359284E7</v>
@@ -1656,7 +1656,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9953999671496856</v>
+        <v>0.9953959694430762</v>
       </c>
       <c r="H8" t="n">
         <v>7.145712E7</v>
@@ -1719,13 +1719,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9545176E7</v>
+        <v>1.9370624E7</v>
       </c>
       <c r="F2" t="n">
-        <v>4214936.606360641</v>
+        <v>4252918.119734369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47230815419620675</v>
+        <v>0.4675530328811297</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1748,7 +1748,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8704249068926266</v>
+        <v>0.8692572836063516</v>
       </c>
       <c r="H3" t="n">
         <v>8266698.0</v>
@@ -1771,7 +1771,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9559488233823016</v>
+        <v>0.9555518707089663</v>
       </c>
       <c r="H4" t="n">
         <v>1.837044E7</v>
@@ -1794,7 +1794,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9798714526796791</v>
+        <v>0.9796900709032399</v>
       </c>
       <c r="H5" t="n">
         <v>3.06174E7</v>
@@ -1817,7 +1817,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.989162543228058</v>
+        <v>0.9890648850548129</v>
       </c>
       <c r="H6" t="n">
         <v>4.286436E7</v>
@@ -1840,7 +1840,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9934771116924197</v>
+        <v>0.9934183328322309</v>
       </c>
       <c r="H7" t="n">
         <v>5.511132E7</v>
@@ -1863,7 +1863,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9964965779791392</v>
+        <v>0.9964650080451719</v>
       </c>
       <c r="H8" t="n">
         <v>7.348176E7</v>
@@ -1886,7 +1886,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9995871103949128</v>
+        <v>0.9995833897761889</v>
       </c>
       <c r="H9" t="n">
         <v>1.8982788E8</v>
@@ -1949,13 +1949,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.97118745E7</v>
+        <v>1.9456334E7</v>
       </c>
       <c r="F2" t="n">
-        <v>4923513.1250997335</v>
+        <v>4987395.248910588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4616286746346726</v>
+        <v>0.4545576777207875</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -1978,7 +1978,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8598693391640658</v>
+        <v>0.8580288557957527</v>
       </c>
       <c r="H3" t="n">
         <v>8775702.0</v>
@@ -2001,7 +2001,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9515215562071482</v>
+        <v>0.9508848378116864</v>
       </c>
       <c r="H4" t="n">
         <v>1.950156E7</v>
@@ -2024,13 +2024,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.976440850412273</v>
+        <v>0.9761314233195215</v>
       </c>
       <c r="H5" t="n">
         <v>3.25026E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.013995838420424E7</v>
+        <v>4.006577891277025E7</v>
       </c>
     </row>
     <row r="6">
@@ -2047,7 +2047,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.986866850232838</v>
+        <v>0.9866943587625501</v>
       </c>
       <c r="H6" t="n">
         <v>4.550364E7</v>
@@ -2070,7 +2070,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9919520084201023</v>
+        <v>0.9918463056812244</v>
       </c>
       <c r="H7" t="n">
         <v>5.850468E7</v>
@@ -2093,7 +2093,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9957050254150106</v>
+        <v>0.9956486149960213</v>
       </c>
       <c r="H8" t="n">
         <v>7.800624E7</v>
@@ -2116,7 +2116,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9994975110053588</v>
+        <v>0.9994909112888378</v>
       </c>
       <c r="H9" t="n">
         <v>2.0151612E8</v>
@@ -2179,13 +2179,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9878573E7</v>
+        <v>1.9553036E7</v>
       </c>
       <c r="F2" t="n">
-        <v>5706433.937212509</v>
+        <v>5799208.927670211</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4286159273102752</v>
+        <v>0.41910299761121494</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2208,7 +2208,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8530505182640625</v>
+        <v>0.8506039675884605</v>
       </c>
       <c r="H3" t="n">
         <v>9907434.0</v>
@@ -2231,7 +2231,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9511587174793683</v>
+        <v>0.9503455627044312</v>
       </c>
       <c r="H4" t="n">
         <v>2.201652E7</v>
@@ -2254,13 +2254,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9782664983044809</v>
+        <v>0.977904658897984</v>
       </c>
       <c r="H5" t="n">
         <v>3.66942E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.539111249645407E7</v>
+        <v>4.534359346200675E7</v>
       </c>
     </row>
     <row r="6">
@@ -2277,13 +2277,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9881426096329953</v>
+        <v>0.987945196848203</v>
       </c>
       <c r="H6" t="n">
         <v>5.137188E7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.164437190169979E7</v>
+        <v>6.137021962292212E7</v>
       </c>
     </row>
     <row r="7">
@@ -2300,13 +2300,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9928250886016818</v>
+        <v>0.9927056340508963</v>
       </c>
       <c r="H7" t="n">
         <v>6.604956E7</v>
       </c>
       <c r="I7" t="n">
-        <v>8.161181633213389E7</v>
+        <v>8.147679442696942E7</v>
       </c>
     </row>
     <row r="8">
@@ -2323,7 +2323,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9960944882713664</v>
+        <v>0.9960294657054792</v>
       </c>
       <c r="H8" t="n">
         <v>8.806608E7</v>
@@ -2346,7 +2346,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.999509773664337</v>
+        <v>0.9995016119235908</v>
       </c>
       <c r="H9" t="n">
         <v>2.2750404E8</v>
@@ -2409,13 +2409,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9878573E7</v>
+        <v>1.9658835E7</v>
       </c>
       <c r="F2" t="n">
-        <v>6190411.1960252</v>
+        <v>6258673.3538292395</v>
       </c>
       <c r="G2" t="n">
-        <v>0.43963175827560663</v>
+        <v>0.43336820315140745</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2438,7 +2438,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8459803427539794</v>
+        <v>0.8442587772876673</v>
       </c>
       <c r="H3" t="n">
         <v>1.0402992E7</v>
@@ -2461,7 +2461,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9482767198631411</v>
+        <v>0.9476985792901766</v>
       </c>
       <c r="H4" t="n">
         <v>2.311776E7</v>
@@ -2484,13 +2484,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9767779608727447</v>
+        <v>0.976518394909973</v>
       </c>
       <c r="H5" t="n">
         <v>3.85296E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.758502508109644E7</v>
+        <v>4.749708697276801E7</v>
       </c>
     </row>
     <row r="6">
@@ -2507,7 +2507,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9872546183269795</v>
+        <v>0.9871121559339605</v>
       </c>
       <c r="H6" t="n">
         <v>5.394144E7</v>
@@ -2530,7 +2530,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9922773128634536</v>
+        <v>0.992190991989098</v>
       </c>
       <c r="H7" t="n">
         <v>6.935328E7</v>
@@ -2553,7 +2553,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9958301332796876</v>
+        <v>0.9957835243034493</v>
       </c>
       <c r="H8" t="n">
         <v>9.247104E7</v>
@@ -2576,7 +2576,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.999503535792031</v>
+        <v>0.9994979865287033</v>
       </c>
       <c r="H9" t="n">
         <v>2.3888352E8</v>
@@ -2639,13 +2639,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.641461E7</v>
+        <v>1.6509195E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1668827.9067570076</v>
+        <v>1659266.805348937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5526031383017933</v>
+        <v>0.5551663784939241</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2668,7 +2668,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9267414212095201</v>
+        <v>0.9271611365666225</v>
       </c>
       <c r="H3" t="n">
         <v>5217372.0</v>
@@ -2691,7 +2691,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9747010742259488</v>
+        <v>0.974846017628358</v>
       </c>
       <c r="H4" t="n">
         <v>1.159416E7</v>
@@ -2714,7 +2714,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9879796717680164</v>
+        <v>0.988048539011139</v>
       </c>
       <c r="H5" t="n">
         <v>1.93236E7</v>
@@ -2737,7 +2737,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9933682859355172</v>
+        <v>0.993406280560621</v>
       </c>
       <c r="H6" t="n">
         <v>2.705304E7</v>
@@ -2760,7 +2760,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9963863290081214</v>
+        <v>0.9964070325657913</v>
       </c>
       <c r="H7" t="n">
         <v>3.478248E7</v>
@@ -2783,7 +2783,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9983322783788344</v>
+        <v>0.9983418331420763</v>
       </c>
       <c r="H8" t="n">
         <v>4.637664E7</v>
@@ -2806,7 +2806,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9990697311724128</v>
+        <v>0.9990750608978815</v>
       </c>
       <c r="H9" t="n">
         <v>5.79708E7</v>
@@ -2869,13 +2869,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6594148E7</v>
+        <v>1.6671581E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1884756.2957866257</v>
+        <v>1876002.3369238372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5408280075602556</v>
+        <v>0.5429606826131247</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -2898,7 +2898,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9213922884139638</v>
+        <v>0.921757390615803</v>
       </c>
       <c r="H3" t="n">
         <v>5543964.0</v>
@@ -2921,7 +2921,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9727978200507793</v>
+        <v>0.9729241635811264</v>
       </c>
       <c r="H4" t="n">
         <v>1.231992E7</v>
@@ -2944,7 +2944,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.986926716575024</v>
+        <v>0.9869874368843603</v>
       </c>
       <c r="H5" t="n">
         <v>2.05332E7</v>
@@ -2967,7 +2967,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9929825261290908</v>
+        <v>0.993015119561846</v>
       </c>
       <c r="H6" t="n">
         <v>2.874648E7</v>
@@ -2990,7 +2990,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9961148351816556</v>
+        <v>0.9961328802589269</v>
       </c>
       <c r="H7" t="n">
         <v>3.695976E7</v>
@@ -3013,7 +3013,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9981695354289958</v>
+        <v>0.9981780372239442</v>
       </c>
       <c r="H8" t="n">
         <v>4.927968E7</v>
@@ -3036,7 +3036,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9989786760971398</v>
+        <v>0.9989834197488529</v>
       </c>
       <c r="H9" t="n">
         <v>6.15996E7</v>
@@ -3099,13 +3099,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6773686E7</v>
+        <v>1.6838988E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2109791.8256369177</v>
+        <v>2101610.002251941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5296808346120226</v>
+        <v>0.5315047436342374</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -3128,7 +3128,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9200633659173064</v>
+        <v>0.9203733621046586</v>
       </c>
       <c r="H3" t="n">
         <v>6099624.0</v>
@@ -3151,7 +3151,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9724718228301161</v>
+        <v>0.9725785777625117</v>
       </c>
       <c r="H4" t="n">
         <v>1.355472E7</v>
@@ -3174,7 +3174,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9870244977758615</v>
+        <v>0.9870748170852073</v>
       </c>
       <c r="H5" t="n">
         <v>2.25912E7</v>
@@ -3197,7 +3197,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9931516543233252</v>
+        <v>0.9931782123723825</v>
       </c>
       <c r="H6" t="n">
         <v>3.162768E7</v>
@@ -3220,7 +3220,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9961390120215676</v>
+        <v>0.9961539850257034</v>
       </c>
       <c r="H7" t="n">
         <v>4.066416E7</v>
@@ -3243,7 +3243,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9981585442817995</v>
+        <v>0.9981656854913133</v>
       </c>
       <c r="H8" t="n">
         <v>5.421888E7</v>
@@ -3266,7 +3266,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9989680860843586</v>
+        <v>0.9989720878713139</v>
       </c>
       <c r="H9" t="n">
         <v>6.77736E7</v>
@@ -3329,13 +3329,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6953224E7</v>
+        <v>1.7009731E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2153873.4198476095</v>
+        <v>2146718.167049354</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5323491272220553</v>
+        <v>0.5339026819412958</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -3358,7 +3358,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9146805351005802</v>
+        <v>0.9149639697417907</v>
       </c>
       <c r="H3" t="n">
         <v>5971806.0</v>
@@ -3381,7 +3381,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9706006951834059</v>
+        <v>0.9706983608382754</v>
       </c>
       <c r="H4" t="n">
         <v>1.327068E7</v>
@@ -3404,7 +3404,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9859032122739604</v>
+        <v>0.9859500423610461</v>
       </c>
       <c r="H5" t="n">
         <v>2.21178E7</v>
@@ -3427,7 +3427,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9922486130071778</v>
+        <v>0.9922743634217378</v>
       </c>
       <c r="H6" t="n">
         <v>3.096492E7</v>
@@ -3450,7 +3450,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9956074431624333</v>
+        <v>0.9956220354102013</v>
       </c>
       <c r="H7" t="n">
         <v>3.981204E7</v>
@@ -3473,7 +3473,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9979783786258001</v>
+        <v>0.9979850945320652</v>
       </c>
       <c r="H8" t="n">
         <v>5.308272E7</v>
@@ -3496,7 +3496,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9988748452801662</v>
+        <v>0.9988785830887038</v>
       </c>
       <c r="H9" t="n">
         <v>6.63534E7</v>
@@ -3559,13 +3559,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.714104E7</v>
+        <v>1.7181464E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2366349.9359030942</v>
+        <v>2360782.4633170012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5184649239486052</v>
+        <v>0.5195978643030652</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -3588,7 +3588,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9067410728870594</v>
+        <v>0.9069604895135828</v>
       </c>
       <c r="H3" t="n">
         <v>6092010.0</v>
@@ -3611,7 +3611,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9676496875335452</v>
+        <v>0.9677258003159684</v>
       </c>
       <c r="H4" t="n">
         <v>1.35378E7</v>
@@ -3634,7 +3634,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9845696643844247</v>
+        <v>0.9846059683854647</v>
       </c>
       <c r="H5" t="n">
         <v>2.2563E7</v>
@@ -3657,7 +3657,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9915555298861679</v>
+        <v>0.9915753977658714</v>
       </c>
       <c r="H6" t="n">
         <v>3.15882E7</v>
@@ -3680,7 +3680,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9950909629754088</v>
+        <v>0.9951025128010046</v>
       </c>
       <c r="H7" t="n">
         <v>4.06134E7</v>
@@ -3703,7 +3703,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.997724700484918</v>
+        <v>0.9977300537369808</v>
       </c>
       <c r="H8" t="n">
         <v>5.41512E7</v>
@@ -3726,7 +3726,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9987407415186009</v>
+        <v>0.9987437042617556</v>
       </c>
       <c r="H9" t="n">
         <v>6.7689E7</v>
@@ -3789,13 +3789,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.7328856E7</v>
+        <v>1.7351816E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2641488.2158844997</v>
+        <v>2637992.9869449637</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5016568318185575</v>
+        <v>0.5023162417121068</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -3818,7 +3818,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8995192758252478</v>
+        <v>0.8996522323657651</v>
       </c>
       <c r="H3" t="n">
         <v>6321402.0</v>
@@ -3841,7 +3841,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9650290821275218</v>
+        <v>0.9650753558013755</v>
       </c>
       <c r="H4" t="n">
         <v>1.404756E7</v>
@@ -3864,7 +3864,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9831445307180117</v>
+        <v>0.9831668339498298</v>
       </c>
       <c r="H5" t="n">
         <v>2.34126E7</v>
@@ -3887,7 +3887,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9906655119068448</v>
+        <v>0.9906778633429493</v>
       </c>
       <c r="H6" t="n">
         <v>3.277764E7</v>
@@ -3910,7 +3910,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9946718352325162</v>
+        <v>0.9946788854838018</v>
       </c>
       <c r="H7" t="n">
         <v>4.214268E7</v>
@@ -3933,7 +3933,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.997435491413859</v>
+        <v>0.9974388847830106</v>
       </c>
       <c r="H8" t="n">
         <v>5.619024E7</v>
@@ -3956,7 +3956,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9985523568318647</v>
+        <v>0.9985542723597346</v>
       </c>
       <c r="H9" t="n">
         <v>7.02378E7</v>
@@ -4019,13 +4019,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.75047685E7</v>
+        <v>1.7519119E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2935298.7715447797</v>
+        <v>2932894.369529983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4880844610998426</v>
+        <v>0.48850378834689123</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -4048,7 +4048,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8901482187553638</v>
+        <v>0.8902382020465756</v>
       </c>
       <c r="H3" t="n">
         <v>6513372.0</v>
@@ -4071,7 +4071,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9614965487832644</v>
+        <v>0.9615280882560362</v>
       </c>
       <c r="H4" t="n">
         <v>1.447416E7</v>
@@ -4094,7 +4094,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.981392384595089</v>
+        <v>0.981407626719129</v>
       </c>
       <c r="H5" t="n">
         <v>2.41236E7</v>
@@ -4117,7 +4117,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9895204555261613</v>
+        <v>0.9895290396737416</v>
       </c>
       <c r="H6" t="n">
         <v>3.377304E7</v>
@@ -4140,7 +4140,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9937053152116807</v>
+        <v>0.993710471399846</v>
       </c>
       <c r="H7" t="n">
         <v>4.342248E7</v>
@@ -4163,7 +4163,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9968728521031284</v>
+        <v>0.9968754136552186</v>
       </c>
       <c r="H8" t="n">
         <v>5.789664E7</v>
@@ -4186,7 +4186,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9983198292510981</v>
+        <v>0.9983212055355066</v>
       </c>
       <c r="H9" t="n">
         <v>7.23708E7</v>
@@ -4249,13 +4249,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.7680681E7</v>
+        <v>1.7687006E7</v>
       </c>
       <c r="F2" t="n">
-        <v>3190259.011136368</v>
+        <v>3189118.1516689467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4806440430659882</v>
+        <v>0.48082976847522974</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -4278,7 +4278,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.8812971061465336</v>
+        <v>0.881339555151392</v>
       </c>
       <c r="H3" t="n">
         <v>6605064.0</v>
@@ -4301,7 +4301,7 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9582821498787292</v>
+        <v>0.9582970684806688</v>
       </c>
       <c r="H4" t="n">
         <v>1.467792E7</v>
@@ -4324,7 +4324,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9799046201896862</v>
+        <v>0.9799118064414067</v>
       </c>
       <c r="H5" t="n">
         <v>2.44632E7</v>
@@ -4347,7 +4347,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9886675745125428</v>
+        <v>0.9886716270690472</v>
       </c>
       <c r="H6" t="n">
         <v>3.424848E7</v>
@@ -4370,7 +4370,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9932811977095226</v>
+        <v>0.9932836004013341</v>
       </c>
       <c r="H7" t="n">
         <v>4.403376E7</v>
@@ -4393,7 +4393,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9966956589511456</v>
+        <v>0.9966968406071667</v>
       </c>
       <c r="H8" t="n">
         <v>5.871168E7</v>
@@ -4416,7 +4416,7 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9981301625203237</v>
+        <v>0.9981308311875962</v>
       </c>
       <c r="H9" t="n">
         <v>7.33896E7</v>
